--- a/backend/output_timetables/sem5_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_ECE_timetable_baskets.xlsx
@@ -9,6 +9,10 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Basket_Allocation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Basket_Courses" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Common_Slots_Info" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,27 +473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B5</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Basket: HSS_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EC304</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC301</t>
         </is>
       </c>
     </row>
@@ -501,12 +505,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC264</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC303</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -516,12 +520,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC264</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS351</t>
         </is>
       </c>
     </row>
@@ -565,17 +569,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EC303</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -585,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC304</t>
+          <t>EC306</t>
         </is>
       </c>
     </row>
@@ -597,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B5 (Tutorial)</t>
+          <t>EC301 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>ELECTIVE_B3 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EC351 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -629,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Basket: HSS_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC351</t>
         </is>
       </c>
     </row>
@@ -661,17 +665,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Basket: HSS_B5 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>HS351 (Tutorial)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC306 (Tutorial)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -739,22 +743,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B5</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Basket: HSS_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -771,27 +775,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC264</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC303</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>EC264</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC303</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -835,27 +839,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>EC304</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -867,27 +871,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B5 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC301 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC306 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -899,27 +903,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Basket: HSS_B5</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC304</t>
+          <t>EC351</t>
         </is>
       </c>
     </row>
@@ -931,27 +935,3018 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Basket: HSS_B5 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>EC351 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>HS351 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Days Separation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Applicable Branches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CS463, CS308, DS301, EC368, CS366, DS359, EC355, CS352, DE351, EC358</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365, CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Specificity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Credits</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Digital Signal Processing</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Introduction to VLSI Design</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Introduction to Algorithms</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Happiness &amp; Wellbeing</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Graphs and Social Network</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Semiconductor Device Modeling</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Advanced Algorithm Design</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Information Security</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>User Interactions and Experience Design</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Signal Interpretation</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slots</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>20</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>20</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>20</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>20</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>20</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>20</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>20</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>20</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>20</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>20</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>20</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>20</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>20</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>20</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>20</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>20</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>20</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>20</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 1 Day</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 1 Time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 2 Day</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 2 Time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Day</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Time</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Courses</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Branches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Sections</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Days Separation</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Consistency</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CS463, CS308, DS301, EC368, CS366, DS359, EC355, CS352, DE351, EC358</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>A &amp; B (BOTH)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>✅ Achieved</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>✅ IDENTICAL across all</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>FIXED COMMON TIMETABLE SLOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365, CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>A &amp; B (BOTH)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>✅ Achieved</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>✅ IDENTICAL across all</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>FIXED COMMON TIMETABLE SLOTS</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_ECE_timetable_baskets.xlsx
@@ -13,6 +13,8 @@
     <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Basket_Courses" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Common_Slots_Info" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Semester_Rules" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Classroom_Utilization" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,27 +475,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>EC306 [C405]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>HS351 [C405]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>EC351 [C405]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>EC301 [C405]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>EC301</t>
         </is>
       </c>
     </row>
@@ -505,12 +507,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC351 [C405]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -520,12 +522,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -569,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>EC301 [C405]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +581,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>HS351 [C405]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,7 +591,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC306 [C405]</t>
         </is>
       </c>
     </row>
@@ -601,27 +603,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial)</t>
+          <t>HS351 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>ELECTIVE_B5 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -633,27 +635,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>ELECTIVE_B5 [C405]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>EC301</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>ELECTIVE_B5 [C405]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>EC351</t>
         </is>
       </c>
     </row>
@@ -670,22 +672,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HS351 (Tutorial)</t>
+          <t>EC301 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC306 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC306 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC351 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -743,22 +745,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>EC306 [C405]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>EC351 [C405]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HS351 [C405]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>HS351</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -775,17 +777,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>EC301 [C405]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>HS351</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC351 [C405]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -795,7 +797,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS351 [C405]</t>
         </is>
       </c>
     </row>
@@ -839,22 +841,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -876,22 +878,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
+          <t>HS351 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EC306 (Tutorial)</t>
+          <t>ELECTIVE_B5 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>EC301 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -903,7 +905,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>ELECTIVE_B5 [C405]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -913,17 +915,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 [C405]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC301 [C405]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC306 [C405]</t>
         </is>
       </c>
     </row>
@@ -945,17 +947,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>EC306 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>EC351 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>HS351 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -970,7 +972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1038,27 +1040,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30</t>
+          <t>Mon 15:30-17:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Wed 13:00-14:30</t>
+          <t>Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS463, CS308, DS301, EC368, CS366, DS359, EC355, CS352, DE351, EC358</t>
+          <t>CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365, CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1087,63 +1089,6 @@
         </is>
       </c>
       <c r="K2" t="inlineStr">
-        <is>
-          <t>FIXED COMMON SLOTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365, CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Semester 5</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>CSE, DSAI, ECE (ALL)</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>FIXED COMMON SLOTS</t>
         </is>
@@ -2620,7 +2565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2668,7 +2613,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2678,16 +2623,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -2703,7 +2648,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2713,16 +2658,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -2738,7 +2683,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2748,16 +2693,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -2773,26 +2718,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC368</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -2808,26 +2753,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -2843,26 +2788,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -2878,26 +2823,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -2913,7 +2858,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2923,16 +2868,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -2948,26 +2893,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DE351</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -2983,26 +2928,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EC358</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -3028,12 +2973,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -3063,12 +3008,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -3098,12 +3043,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -3133,12 +3078,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -3168,12 +3113,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -3203,12 +3148,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -3238,12 +3183,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -3273,12 +3218,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -3308,12 +3253,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -3343,12 +3288,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -3360,356 +3305,6 @@
         </is>
       </c>
       <c r="G21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>20</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>20</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>20</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>20</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>20</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>20</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>20</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>20</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>20</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>20</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3726,7 +3321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3814,7 +3409,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3824,7 +3419,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -3834,12 +3429,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3849,7 +3444,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>CS463, CS308, DS301, EC368, CS366, DS359, EC355, CS352, DE351, EC358</t>
+          <t>CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365, CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -3877,76 +3472,1334 @@
           <t>FIXED COMMON TIMETABLE SLOTS</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rule</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Exclusion</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Reason</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Scheduled Baskets</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Schedule only ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Exclude ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Curriculum requirement - Semester 5 focuses on B5 electives</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>✅ Applied</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Recreation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Semester 5</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365, CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>CSE, DSAI, ECE (ALL)</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>A &amp; B (BOTH)</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>✅ Achieved</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>✅ IDENTICAL across all</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>FIXED COMMON TIMETABLE SLOTS</t>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L307</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>L308</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>40</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>100</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Computers</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_ECE_timetable_baskets.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Classroom_Utilization" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Classroom_Allocation" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,11 +437,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Mon</t>
@@ -467,221 +464,221 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>EC301 [C304]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>EC306 [C002]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>HS351 [C101]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>EC301 [C403]</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC301 [C403]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>EC301 [C304]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EC351 [C202]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HS351 [C403]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>HS351 [C403]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC351 [C202]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 [C002]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 [C002]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>EC306 [C002]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HS351 [C101]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>EC351 (Tutorial) [C203]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 (Tutorial) [C205]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>EC306 [C201]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>EC351 [C102]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>EC351 [C102]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 [C403]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 [C403]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>EC306 (Lab) [L406]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>EC301 (Tutorial) [C101]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 (Tutorial) [C101]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 [C404]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>EC306 [C201]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 [C404]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>EC306 (Lab) [L306]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>EC351 (Tutorial) [C303]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC301 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L306]</t>
+          <t>EC306 (Lab) [L406]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -710,258 +707,3556 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>EC301 [C402]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HS351 [C004]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HS351 [C004]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>EC351 [C405]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>EC306 [C201]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EC301 [C402]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>EC306 [C201]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC351 [C405]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 [C403]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 [C403]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>EC301 (Tutorial) [C304]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 (Tutorial) [C204]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 (Tutorial) [C404]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>EC351 (Tutorial) [C404]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 [C404]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>EC306 (Lab) [L306]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 [C404]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>EC306 (Lab) [L306]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Time Slot</t>
+          <t>Room Number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Weekly Hours (Timetable)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Daily Avg Hours (Timetable)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC301 [C204]</t>
+          <t>Recreation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>EC351 [C002]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>EC351 [C002]</t>
-        </is>
-      </c>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HS351 [C004]</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>EC301 [C204]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>HS351 [C004]</t>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>EC306 (Lab) [L408]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>EC306 [C405]</t>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>EC306 (Lab) [L408]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 (Tutorial) [C104]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C405]</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 [C405]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>EC306 [C405]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>10</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L307</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>L308</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>10</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>EC351 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>EC351 (Tutorial) [C304]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>EC301 (Tutorial) [C303]</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>EC301 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>EC301 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>EC351 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_ECE_timetable_baskets.xlsx
@@ -471,27 +471,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC301 [C304]</t>
+          <t>EC306 [C403]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EC306 [C002]</t>
+          <t>EC351 [C302]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>HS351 [C405]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EC301 [C304]</t>
+          <t>EC301 [C401]</t>
         </is>
       </c>
     </row>
@@ -503,27 +503,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>HS351 [C405]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EC301 [C401]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>EC306 [C403]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>EC351 [C202]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HS351 [C403]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>HS351 [C403]</t>
         </is>
       </c>
     </row>
@@ -567,12 +567,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC351 [C202]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C002]</t>
+          <t>ELECTIVE_B4 [C405]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -582,12 +582,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C002]</t>
+          <t>ELECTIVE_B4 [C405]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC306 [C002]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -604,17 +604,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C203]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial) [C205]</t>
+          <t>ELECTIVE_B4 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial) [C405]</t>
+          <t>ELECTIVE_B5 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C403]</t>
+          <t>ELECTIVE_B5 [C204]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C403]</t>
+          <t>ELECTIVE_B5 [C204]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC351 [C302]</t>
         </is>
       </c>
     </row>
@@ -663,17 +663,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>EC301 (Tutorial) [C201]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C202]</t>
+          <t>EC351 (Tutorial) [C402]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -741,27 +741,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC301 [C402]</t>
+          <t>EC301 [C004]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HS351 [C004]</t>
+          <t>EC351 [C003]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HS351 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC351 [C405]</t>
+          <t>HS351 [C402]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC351 [C003]</t>
         </is>
       </c>
     </row>
@@ -778,22 +778,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC306 [C201]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC301 [C402]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC306 [C201]</t>
+          <t>EC306 [C003]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC301 [C004]</t>
         </is>
       </c>
     </row>
@@ -837,22 +837,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC351 [C405]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C403]</t>
+          <t>ELECTIVE_B4 [C401]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS351 [C402]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C403]</t>
+          <t>ELECTIVE_B4 [C401]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -874,22 +874,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C304]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial) [C204]</t>
+          <t>ELECTIVE_B4 (Tutorial) [C302]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial) [C404]</t>
+          <t>ELECTIVE_B5 (Tutorial) [C002]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C404]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C404]</t>
+          <t>ELECTIVE_B5 [C302]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L306]</t>
+          <t>EC306 (Lab) [L407]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C404]</t>
+          <t>ELECTIVE_B5 [C302]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC306 [C003]</t>
         </is>
       </c>
     </row>
@@ -933,17 +933,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC351 (Tutorial) [C104]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L306]</t>
+          <t>EC306 (Lab) [L407]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC301 (Tutorial) [C204]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1065,16 +1065,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1099,16 +1099,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1269,16 +1269,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1405,16 +1405,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1439,16 +1439,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1541,16 +1541,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1779,16 +1779,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1847,16 +1847,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1983,16 +1983,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>22.5</v>
+        <v>7.5</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2051,16 +2051,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2153,16 +2153,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2306,12 +2306,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -2356,17 +2356,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -2461,32 +2461,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC301 (Tutorial)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -2521,27 +2521,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -2576,17 +2576,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -2631,17 +2631,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -2686,17 +2686,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C401</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2741,17 +2741,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2796,17 +2796,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial)</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2846,22 +2846,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2906,27 +2906,27 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2961,12 +2961,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -3016,17 +3016,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3036,12 +3036,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -3121,22 +3121,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3181,17 +3181,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C401</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -3236,27 +3236,27 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3301,17 +3301,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3346,17 +3346,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3401,17 +3401,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3461,22 +3461,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3511,17 +3511,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C401</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3566,17 +3566,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3621,17 +3621,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial)</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3641,12 +3641,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3671,22 +3671,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3701,7 +3701,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3726,22 +3726,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3786,27 +3786,27 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3841,17 +3841,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC301 (Tutorial)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -3891,22 +3891,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3946,32 +3946,32 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -4006,17 +4006,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C401</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4061,27 +4061,27 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4111,32 +4111,32 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4166,32 +4166,32 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4226,27 +4226,27 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">

--- a/backend/output_timetables/sem5_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_ECE_timetable_baskets.xlsx
@@ -471,17 +471,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC306 [C403]</t>
+          <t>EC301 [C003]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EC351 [C302]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HS351 [C405]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EC301 [C401]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -503,7 +503,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HS351 [C405]</t>
+          <t>EC351 [C403]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,17 +513,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC301 [C401]</t>
+          <t>EC301 [C003]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC306 [C403]</t>
+          <t>EC351 [C403]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC306 [C204]</t>
         </is>
       </c>
     </row>
@@ -567,27 +567,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>HS351 [C203]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 [C004]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4 [C405]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C405]</t>
+          <t>ELECTIVE_B4 [C004]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS351 [C203]</t>
         </is>
       </c>
     </row>
@@ -604,17 +604,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC351 (Tutorial) [C305]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial) [C202]</t>
+          <t>ELECTIVE_B4 (Tutorial) [C404]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial) [C203]</t>
+          <t>ELECTIVE_B5 (Tutorial) [C205]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -631,27 +631,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C204]</t>
+          <t>ELECTIVE_B5 [C405]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>EC306 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 [C405]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>EC306 [C204]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 [C204]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>EC306 (Lab) [L406]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>EC351 [C302]</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C201]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>EC306 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>EC351 (Tutorial) [C402]</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L406]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC301 (Tutorial) [C204]</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC301 [C004]</t>
+          <t>EC351 [C201]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EC351 [C003]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -756,12 +756,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>HS351 [C402]</t>
+          <t>HS351 [C404]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EC351 [C003]</t>
+          <t>EC301 [C202]</t>
         </is>
       </c>
     </row>
@@ -778,22 +778,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>EC351 [C201]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EC301 [C202]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>EC306 [C003]</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC301 [C004]</t>
+          <t>EC306 [C305]</t>
         </is>
       </c>
     </row>
@@ -837,22 +837,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>EC306 [C305]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 [C203]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4 [C401]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>HS351 [C402]</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C401]</t>
+          <t>ELECTIVE_B4 [C203]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -869,22 +869,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>EC301 (Tutorial) [C205]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial) [C302]</t>
+          <t>ELECTIVE_B4 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial) [C002]</t>
+          <t>ELECTIVE_B5 (Tutorial) [C104]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -901,27 +901,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C302]</t>
+          <t>ELECTIVE_B5 [C201]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L407]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C302]</t>
+          <t>ELECTIVE_B5 [C201]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC306 (Lab) [L408]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC306 [C003]</t>
+          <t>HS351 [C404]</t>
         </is>
       </c>
     </row>
@@ -933,27 +933,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C104]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L407]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C204]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC306 (Lab) [L408]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC351 (Tutorial) [C404]</t>
         </is>
       </c>
     </row>
@@ -1065,16 +1065,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1099,16 +1099,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1405,16 +1405,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>15</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1439,16 +1439,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1473,16 +1473,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>15</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1541,16 +1541,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1813,16 +1813,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1983,16 +1983,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2051,16 +2051,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2119,16 +2119,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2187,16 +2187,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2306,22 +2306,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -2361,12 +2361,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2411,17 +2411,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2466,17 +2466,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial)</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -2521,27 +2521,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -2576,17 +2576,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -2626,22 +2626,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2681,22 +2681,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2706,12 +2706,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2741,27 +2741,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2796,17 +2796,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2851,17 +2851,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -2971,17 +2971,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3076,12 +3076,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3091,12 +3091,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3121,22 +3121,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3181,17 +3181,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3236,17 +3236,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC301 (Tutorial)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3296,22 +3296,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3346,17 +3346,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3401,17 +3401,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>EC301 (Tutorial)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3451,32 +3451,32 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3511,17 +3511,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3566,17 +3566,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3586,12 +3586,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3616,22 +3616,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3641,12 +3641,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3676,17 +3676,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3731,17 +3731,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3781,22 +3781,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3836,22 +3836,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -3896,17 +3896,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3951,32 +3951,32 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom without projector</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -4006,32 +4006,32 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>classroom without projector</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -4056,32 +4056,32 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4116,27 +4116,27 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4171,27 +4171,27 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4226,27 +4226,27 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">

--- a/backend/output_timetables/sem5_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_ECE_timetable_baskets.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EC351 [C405]</t>
+          <t>EC301 [C304]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -511,27 +511,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC306 [C401]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC301 [C104]</t>
+          <t>EC351 [C303]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>EC351 [C303]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC301 [C104]</t>
+          <t>EC306 [C201]</t>
         </is>
       </c>
     </row>
@@ -575,27 +575,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC351 [C405]</t>
+          <t>HS351 [C104]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C404]</t>
+          <t>ELECTIVE_B4 [C201]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HS351 [C405]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C404]</t>
+          <t>ELECTIVE_B4 [C201]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L306]</t>
+          <t>EC306 (Lab) [L407]</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial) [C402]</t>
+          <t>ELECTIVE_B4 (Tutorial) [C102]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial) [C305]</t>
+          <t>ELECTIVE_B5 (Tutorial) [C102]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L306]</t>
+          <t>EC306 (Lab) [L407]</t>
         </is>
       </c>
     </row>
@@ -639,27 +639,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C305]</t>
+          <t>ELECTIVE_B5 [C204]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>HS351 [C405]</t>
+          <t>EC301 [C304]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C305]</t>
+          <t>ELECTIVE_B5 [C204]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC306 [C201]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC306 [C401]</t>
+          <t>HS351 [C104]</t>
         </is>
       </c>
     </row>
@@ -671,27 +671,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>EC301 (Tutorial) [C305]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>EC301 (Tutorial) [C201]</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C204]</t>
+          <t>EC351 (Tutorial) [C101]</t>
         </is>
       </c>
     </row>
@@ -1559,16 +1559,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1627,16 +1627,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1661,16 +1661,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1695,16 +1695,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1763,16 +1763,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1899,16 +1899,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1933,16 +1933,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1967,16 +1967,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -2205,16 +2205,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2239,16 +2239,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2273,16 +2273,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2307,16 +2307,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>12.5</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2443,16 +2443,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2477,16 +2477,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2511,16 +2511,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2545,16 +2545,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2579,16 +2579,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2647,16 +2647,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2795,17 +2795,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2850,17 +2850,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -2905,12 +2905,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>EC301 (Tutorial)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -2965,12 +2965,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -3035,7 +3035,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -3075,12 +3075,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -3130,12 +3130,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -3180,17 +3180,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -3365,7 +3365,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial)</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -3515,12 +3515,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -3680,12 +3680,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3785,27 +3785,27 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3840,17 +3840,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3860,12 +3860,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3890,22 +3890,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3915,12 +3915,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3945,22 +3945,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4005,17 +4005,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -4060,17 +4060,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>EC301 (Tutorial)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -4110,22 +4110,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -4170,27 +4170,27 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -4225,17 +4225,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C401</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -4280,27 +4280,27 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -4330,22 +4330,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -4390,17 +4390,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -4445,17 +4445,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -4500,27 +4500,27 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4560,12 +4560,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -4615,12 +4615,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -4630,12 +4630,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4670,12 +4670,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial)</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -4685,12 +4685,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4725,22 +4725,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -4813,12 +4813,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EC301 [C403]</t>
+          <t>HS351 [C304]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HS351 [C204]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EC306 [C201]</t>
+          <t>EC351 [C101]</t>
         </is>
       </c>
     </row>
@@ -4840,22 +4840,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC351 [C202]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC306 [C204]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS351 [C304]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC306 [C201]</t>
+          <t>EC351 [C101]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -4904,27 +4904,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 [C302]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EC301 [C002]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 [C302]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>EC306 (Lab) [L406]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4 [C102]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>EC301 [C403]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4 [C102]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>EC351 [C202]</t>
         </is>
       </c>
     </row>
@@ -4936,27 +4936,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 (Tutorial) [C401]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 (Tutorial) [C404]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>EC306 (Lab) [L406]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4 (Tutorial) [C002]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 (Tutorial) [C004]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>EC301 (Tutorial) [C203]</t>
         </is>
       </c>
     </row>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C202]</t>
+          <t>ELECTIVE_B5 [C004]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4978,17 +4978,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C202]</t>
+          <t>ELECTIVE_B5 [C004]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC306 [C204]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>HS351 [C204]</t>
+          <t>EC301 [C002]</t>
         </is>
       </c>
     </row>
@@ -5000,12 +5000,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC351 (Tutorial) [C104]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C305]</t>
+          <t>EC301 (Tutorial) [C302]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -5093,22 +5093,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**EC306**</t>
+          <t>**HS351**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Digital Signal Processing</t>
+          <t>Happiness &amp; Wellbeing</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sibasankar Padhy</t>
+          <t>Chandrika Kamath</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -5133,34 +5133,34 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>L306, C401</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**EC351**</t>
+          <t>**ELECTIVE_B5**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Introduction to Algorithms</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jagdish R.B</t>
+          <t>–</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -5180,41 +5180,41 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C405, C204</t>
+          <t>C102, C204</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B5**</t>
+          <t>**EC301**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Introduction to VLSI Design</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>Jagadish D.N</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>No</t>
@@ -5227,24 +5227,24 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C304, C305</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**EC301**</t>
+          <t>**EC351**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Introduction to VLSI Design</t>
+          <t>Introduction to Algorithms</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jagadish D.N</t>
+          <t>Jagdish R.B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C201, C104</t>
+          <t>C303, C101</t>
         </is>
       </c>
     </row>
@@ -5321,29 +5321,29 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C404, C402</t>
+          <t>C102, C201</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**HS351**</t>
+          <t>**EC306**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Happiness &amp; Wellbeing</t>
+          <t>Digital Signal Processing</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Chandrika Kamath</t>
+          <t>Sibasankar Padhy</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C201, L407</t>
         </is>
       </c>
     </row>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>⚠️ 6 issues</t>
+          <t>[WARN] 6 issues</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -5488,27 +5488,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**EC351**</t>
+          <t>**ELECTIVE_B5**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Introduction to Algorithms</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jagdish R.B</t>
+          <t>–</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -5528,39 +5528,39 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C202, C305</t>
+          <t>C404, C004</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**EC306**</t>
+          <t>**EC351**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Digital Signal Processing</t>
+          <t>Introduction to Algorithms</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sibasankar Padhy</t>
+          <t>Jagdish R.B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -5575,24 +5575,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>L406, C201</t>
+          <t>C104, C101</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B5**</t>
+          <t>**HS351**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Happiness &amp; Wellbeing</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>Chandrika Kamath</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -5602,14 +5602,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>No</t>
@@ -5622,41 +5622,41 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C004, C202</t>
+          <t>C304</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**EC301**</t>
+          <t>**EC306**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Introduction to VLSI Design</t>
+          <t>Digital Signal Processing</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jagadish D.N</t>
+          <t>Sibasankar Padhy</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>2/1</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>No</t>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C203, C403</t>
+          <t>C204, L406</t>
         </is>
       </c>
     </row>
@@ -5716,34 +5716,34 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C102, C002</t>
+          <t>C302, C401</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**HS351**</t>
+          <t>**EC301**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Happiness &amp; Wellbeing</t>
+          <t>Introduction to VLSI Design</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Chandrika Kamath</t>
+          <t>Jagadish D.N</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C302, C002</t>
         </is>
       </c>
     </row>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>⚠️ 6 issues</t>
+          <t>[WARN] 6 issues</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -5825,7 +5825,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5902,7 +5902,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -5914,12 +5914,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -5945,7 +5945,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -5957,19 +5957,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5988,31 +5988,31 @@
         </is>
       </c>
       <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>2</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>EC351, EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -6039,11 +6039,11 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>ELECTIVE_B5 (Tutorial), ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -6055,7 +6055,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial), EC306</t>
+          <t>HS351, EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -6098,7 +6098,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -6129,7 +6129,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>EC351, ELECTIVE_B5</t>
+          <t>EC306, ELECTIVE_B4</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -6141,7 +6141,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -6160,31 +6160,31 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial)</t>
+          <t>EC306, ELECTIVE_B5</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial), HS351</t>
+          <t>EC301 (Tutorial), ELECTIVE_B4</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -6227,7 +6227,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -6246,31 +6246,31 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial), ELECTIVE_B5, ELECTIVE_B5 (Tutorial)</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -6289,31 +6289,31 @@
         </is>
       </c>
       <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>2</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>HS351, EC301</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -6344,7 +6344,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
+          <t>EC301 (Tutorial)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -6356,7 +6356,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C401</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -6375,7 +6375,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -6387,12 +6387,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -6418,11 +6418,11 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -6430,19 +6430,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -6457,35 +6457,35 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>EC351, HS351</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -6520,49 +6520,6 @@
         </is>
       </c>
       <c r="I16" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>EC306 (Lab)</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
         <is>
           <t>0.4</t>
         </is>
@@ -6677,22 +6634,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -6734,22 +6691,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -6791,22 +6748,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -6848,22 +6805,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -6905,22 +6862,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -6962,22 +6919,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -7060,7 +7017,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-12-03 12:04</t>
+          <t>2025-12-12 16:59</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7144,12 +7101,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16/35</t>
+          <t>15/35</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Utilization: 45.7%</t>
+          <t>Utilization: 42.9%</t>
         </is>
       </c>
     </row>
@@ -7188,7 +7145,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>⚠️ NEEDS REVIEW</t>
+          <t>[WARN] NEEDS REVIEW</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -7301,17 +7258,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>✅ YES</t>
+          <t>[OK] YES</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>✅ YES</t>
+          <t>[OK] YES</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>✅ YES</t>
+          <t>[OK] YES</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7358,17 +7315,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>✅ YES</t>
+          <t>[OK] YES</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>✅ YES</t>
+          <t>[OK] YES</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>✅ YES</t>
+          <t>[OK] YES</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/backend/output_timetables/sem5_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_ECE_timetable_baskets.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Basket_Allocation" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Classroom_Utilization" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Classroom_Allocation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Basket_Course_Allocations" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -437,6 +440,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Mon</t>
@@ -464,211 +472,211 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>EC306 [C004]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>EC306 [C101]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>EC351 [C004]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>HS351 [C101]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>EC306</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EC301 [C101]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>EC301 [C101]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HS351 [C101]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>EC306</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>EC301</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC306 (Lab) [C101]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>EC301</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>EC351</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>EC306 (Lab)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>EC351</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>EC306 (Lab) [C101]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>EC351 (Tutorial) [C202]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>EC306 (Lab)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>EC301 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>EC351 [C101]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>HS351</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>HS351</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>EC301 (Tutorial) [C202]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -707,6 +715,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Mon</t>
@@ -734,226 +747,226 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>EC306 [C004]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>EC306 [C102]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>EC351 [C004]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>HS351 [C205]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EC301 [C102]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>EC301 [C102]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HS351 [C102]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>EC301</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC306 (Lab) [C102]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>HS351</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>EC306 (Lab) [C203]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>EC351 (Tutorial) [C203]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>EC301</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>EC351 [C102]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>EC306</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>EC351</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>EC351</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EC301 (Tutorial) [C203]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>EC306 (Lab)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>EC306</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>HS351</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>EC351 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>EC306 (Lab)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>EC301 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -2576,4 +2589,7073 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>12</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>EC301 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>EC351 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>EC301 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>EC351 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>5</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>5</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>5</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>5</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>5</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>5</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>5</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>5</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>5</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>5</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>5</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>5</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>5</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>5</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>5</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>5</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>5</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>5</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C002, C101, C302, L403</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C003, C102, C303, L404</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C004, C104, C304, L405</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C302, C305, L402, L406</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C002, C101, C302, L403</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C003, C102, C303, L404</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C004, C104, C304, L405</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C302, C305, L402, L406</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C101, C102, C304, L405, L407, L408</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C004, C102, C104, C305, L406, L408</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C004, C101, C102, C104, L407</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C001, C004, C104, C304, L408</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C002, C004, C101, C305</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C001, C003, C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C101, C102, C304, L405, L407, L408</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C004, C102, C104, C305, L406, L408</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>C004, C101, C102, C104, L407</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>C001, C004, C104, C304, L408</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>C002, C004, C101, C305</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>C001, C003, C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>C002, C101, C302, L403</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>C003, C102, C303, L404</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>C004, C104, C304, L405</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>C302, C305, L402, L406</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>C101, C102, C304, L405, L407, L408</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>C004, C102, C104, C305, L406, L408</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>C001, C004, C104, C304, L408</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/backend/output_timetables/sem5_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_ECE_timetable_baskets.xlsx
@@ -15,10 +15,10 @@
     <sheet name="Basket_Allocation" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Course_Summary" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Basket_Courses" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Classroom_Allocation" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Section_A" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Classroom_Utilization" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Basket_Course_Allocations" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Basket_Course_Allocations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Classroom_Allocation" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Section_A" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Classroom_Utilization" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -484,27 +484,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C202]</t>
+          <t>MINOR: Generative Ai [C205]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C205]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C202]</t>
+          <t>MINOR: Design [C205]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C202]</t>
+          <t>MINOR: VLSI [C205]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C202]</t>
+          <t>MINOR: DSAI [C205]</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C202]</t>
+          <t>EC301 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -740,27 +740,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C202]</t>
+          <t>MINOR: VLSI [C205]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C202]</t>
+          <t>MINOR: DSAI [C205]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C202]</t>
+          <t>MINOR: Generative Ai [C205]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C205]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C202]</t>
+          <t>MINOR: Design [C205]</t>
         </is>
       </c>
     </row>
@@ -770,6 +770,3701 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>EC301 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>EC351 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>EC351 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -823,27 +4518,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C202]</t>
+          <t>MINOR: Generative Ai [C205]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C205]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C202]</t>
+          <t>MINOR: Design [C205]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C202]</t>
+          <t>MINOR: VLSI [C205]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C202]</t>
+          <t>MINOR: DSAI [C205]</t>
         </is>
       </c>
     </row>
@@ -951,7 +4646,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L105]</t>
+          <t>EC306 (Lab) [L206]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -983,7 +4678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L105]</t>
+          <t>EC306 (Lab) [L206]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1047,7 +4742,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C202]</t>
+          <t>EC301 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1079,27 +4774,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C202]</t>
+          <t>MINOR: VLSI [C205]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C202]</t>
+          <t>MINOR: DSAI [C205]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C202]</t>
+          <t>MINOR: Generative Ai [C205]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C205]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C202]</t>
+          <t>MINOR: Design [C205]</t>
         </is>
       </c>
     </row>
@@ -1108,7 +4803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1449,16 +5144,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1585,16 +5280,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>5.8</v>
+        <v>2.6</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>72.5</v>
+        <v>32.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1619,16 +5314,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1687,16 +5382,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1721,16 +5416,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1823,16 +5518,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2363,370 +6058,6 @@
           <t>TV</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Basket Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Course</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Allocated Rooms</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>EC368</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>DE351</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>EC358</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2884,7 +6215,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C202, C203</t>
         </is>
       </c>
     </row>
@@ -3134,7 +6465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3211,7 +6542,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3219,42 +6550,42 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>EC301, MINOR: Generative Ai, MINOR: Cybersecurity...</t>
+          <t>EC301, EC351, EC306...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>1.8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3266,10 +6597,96 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>EC301 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity, MINOR: Design, MINOR: Generative Ai...</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>EC306 (Lab)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>0.4</t>
         </is>
@@ -3767,7 +7184,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 19:02</t>
+          <t>2026-01-20 00:15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3834,7 +7251,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20 courses in baskets</t>
+          <t>10 courses in baskets</t>
         </is>
       </c>
     </row>
@@ -3851,12 +7268,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2/36</t>
+          <t>4/36</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Utilization: 5.6%</t>
+          <t>Utilization: 11.1%</t>
         </is>
       </c>
     </row>
@@ -4003,7 +7420,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS463, CS308, DS301, CS366, CS463, CS308, DS301, CS366</t>
+          <t>CS463, CS308, DS301, CS366</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -4060,7 +7477,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DS359, EC355, EC364, CS352, ASD352, EC365, DS359, EC355, EC364, CS352, ASD352, EC365</t>
+          <t>DS359, EC355, EC364, CS352, ASD352, EC365</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -5565,7 +8982,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5632,7 +9049,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -5667,7 +9084,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -5702,7 +9119,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -5737,7 +9154,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -5753,26 +9170,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -5788,26 +9205,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -5823,26 +9240,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -5858,26 +9275,26 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -5898,7 +9315,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5912,7 +9329,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -5933,7 +9350,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5947,7 +9364,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -5955,356 +9372,6 @@
         </is>
       </c>
       <c r="G11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>12</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>12</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>12</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>12</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>12</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>12</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>12</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>12</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>12</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -6321,7 +9388,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6332,3375 +9399,347 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Semester</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Branch</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Section</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Day</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Room Type</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Capacity</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Conflict</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Allocation Type</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Basket</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>room</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>course</t>
+          <t>Allocated Rooms</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>MINOR: Generative Ai</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>EC306</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>EC301</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>EC306 (Lab)</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>EC306 (Lab)</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>EC301 (Tutorial)</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>MINOR: VLSI</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>EC306</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>EC301</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>EC351 (Tutorial)</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>EC351</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>MINOR: DSAI</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>MINOR: Design</t>
-        </is>
-      </c>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>EC351</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>HS351</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>MINOR: Generative Ai</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>MINOR: VLSI</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>HS351</t>
-        </is>
-      </c>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>MINOR: Cybersecurity</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>MINOR: DSAI</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>MINOR: Design</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>5</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>5</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>5</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>5</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>5</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>5</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>5</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>5</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>5</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>5</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>5</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>5</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>5</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>5</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>5</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>5</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>5</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>5</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>5</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>5</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>5</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>5</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>5</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>5</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>5</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>5</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>5</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>5</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>5</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>5</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>EC306 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>5</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>HS351</t>
-        </is>
-      </c>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/output_timetables/sem5_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_ECE_timetable_baskets.xlsx
@@ -484,27 +484,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C205]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C205]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C205]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C205]</t>
+          <t>MINOR: VLSI [C202]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C205]</t>
+          <t>MINOR: DSAI [C202]</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L206]</t>
+          <t>EC306 (Lab) [L105]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L206]</t>
+          <t>EC306 (Lab) [L105]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C203]</t>
+          <t>EC301 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -740,27 +740,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C205]</t>
+          <t>MINOR: VLSI [C202]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C205]</t>
+          <t>MINOR: DSAI [C202]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C205]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C205]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C205]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,7 +891,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -905,7 +905,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1161,7 +1161,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -1225,7 +1225,7 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I8" t="b">
@@ -1289,7 +1289,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I9" t="b">
@@ -1353,7 +1353,7 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I14" t="b">
@@ -1673,7 +1673,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I15" t="b">
@@ -1737,7 +1737,7 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -1929,7 +1929,7 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -1993,7 +1993,7 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -2121,7 +2121,7 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -2185,7 +2185,7 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -2249,7 +2249,7 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2289,17 +2289,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -2310,18 +2310,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2339,27 +2347,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -2370,18 +2378,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>EC351</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2399,27 +2415,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -2430,18 +2446,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2469,17 +2493,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -2497,12 +2521,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2542,14 +2566,10 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="b">
         <v>0</v>
       </c>
@@ -2565,12 +2585,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2605,12 +2625,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2633,12 +2653,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2663,25 +2683,29 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I30" t="b">
         <v>0</v>
       </c>
@@ -2692,17 +2716,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2727,12 +2751,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2742,12 +2766,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -2760,17 +2784,17 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2795,12 +2819,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2810,12 +2834,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -2828,17 +2852,17 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2873,17 +2897,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -2901,12 +2925,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2931,27 +2955,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -2969,17 +2993,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -2999,27 +3023,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -3037,17 +3061,17 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -3067,25 +3091,29 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I36" t="b">
         <v>0</v>
       </c>
@@ -3101,17 +3129,17 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -3141,17 +3169,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -3169,12 +3197,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3204,22 +3232,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -3232,22 +3260,22 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3272,7 +3300,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3282,7 +3310,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3300,22 +3328,22 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3340,7 +3368,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3353,7 +3381,11 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I40" t="b">
         <v>0</v>
       </c>
@@ -3364,22 +3396,22 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3409,19 +3441,15 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="b">
         <v>0</v>
       </c>
@@ -3437,12 +3465,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3477,12 +3505,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3505,12 +3533,12 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3545,12 +3573,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3573,12 +3601,12 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3603,25 +3631,29 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I44" t="b">
         <v>0</v>
       </c>
@@ -3632,17 +3664,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3667,12 +3699,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3682,12 +3714,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -3700,17 +3732,17 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3735,12 +3767,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3750,12 +3782,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -3768,17 +3800,17 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3846,7 +3878,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3876,22 +3908,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -3904,22 +3936,22 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -3944,7 +3976,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3954,7 +3986,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3972,22 +4004,22 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4012,7 +4044,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4025,7 +4057,11 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I50" t="b">
         <v>0</v>
       </c>
@@ -4036,22 +4072,22 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4081,19 +4117,15 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="b">
         <v>0</v>
       </c>
@@ -4109,12 +4141,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4149,12 +4181,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4177,12 +4209,12 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4217,12 +4249,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4245,215 +4277,15 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>5</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>5</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>5</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
@@ -4518,27 +4350,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C205]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C205]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C205]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C205]</t>
+          <t>MINOR: VLSI [C202]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C205]</t>
+          <t>MINOR: DSAI [C202]</t>
         </is>
       </c>
     </row>
@@ -4646,7 +4478,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L206]</t>
+          <t>EC306 (Lab) [L105]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4678,7 +4510,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L206]</t>
+          <t>EC306 (Lab) [L105]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4742,7 +4574,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C203]</t>
+          <t>EC301 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4774,27 +4606,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C205]</t>
+          <t>MINOR: VLSI [C202]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C205]</t>
+          <t>MINOR: DSAI [C202]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C205]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C205]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C205]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
     </row>
@@ -5144,16 +4976,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -5280,16 +5112,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E14" t="n">
-        <v>2.6</v>
+        <v>5.8</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>32.5</v>
+        <v>72.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -5314,16 +5146,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -5382,16 +5214,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -5416,16 +5248,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -5518,16 +5350,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -6168,7 +6000,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C202, L206</t>
+          <t>L105, C202</t>
         </is>
       </c>
     </row>
@@ -6215,7 +6047,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C202, C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -6465,7 +6297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6542,7 +6374,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -6550,42 +6382,42 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>EC301, EC351, EC306...</t>
+          <t>HS351, EC306, MINOR: Cybersecurity...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -6597,96 +6429,10 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial)</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>5</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>MINOR: Cybersecurity, MINOR: Design, MINOR: Generative Ai...</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>EC306 (Lab)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>0.4</t>
         </is>
@@ -7184,7 +6930,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-20 00:15</t>
+          <t>2026-01-23 00:22</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7268,12 +7014,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4/36</t>
+          <t>2/36</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Utilization: 11.1%</t>
+          <t>Utilization: 5.6%</t>
         </is>
       </c>
     </row>
@@ -9426,7 +9172,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403, L405</t>
         </is>
       </c>
     </row>
@@ -9443,7 +9189,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L404, L407</t>
         </is>
       </c>
     </row>
@@ -9460,7 +9206,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L405, L408</t>
         </is>
       </c>
     </row>
@@ -9477,7 +9223,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004, L406</t>
         </is>
       </c>
     </row>
@@ -9494,7 +9240,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C004, L408</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9257,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C003, C004</t>
         </is>
       </c>
     </row>
@@ -9528,7 +9274,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C002, C003</t>
         </is>
       </c>
     </row>
@@ -9545,7 +9291,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C001, C002</t>
         </is>
       </c>
     </row>
@@ -9562,7 +9308,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001, C101</t>
         </is>
       </c>
     </row>
@@ -9579,7 +9325,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101, C102</t>
         </is>
       </c>
     </row>
@@ -9596,7 +9342,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403, L405</t>
         </is>
       </c>
     </row>
@@ -9613,7 +9359,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L404, L407</t>
         </is>
       </c>
     </row>
@@ -9630,7 +9376,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L405, L408</t>
         </is>
       </c>
     </row>
@@ -9660,7 +9406,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004, L406</t>
         </is>
       </c>
     </row>
@@ -9677,7 +9423,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C004, L408</t>
         </is>
       </c>
     </row>
@@ -9694,7 +9440,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C003, C004</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9457,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C001, C002</t>
         </is>
       </c>
     </row>
